--- a/Programa/tabla_ejemplo.xlsx
+++ b/Programa/tabla_ejemplo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02448F6C-56CD-4A57-A271-F295347243F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08623904-076E-44AE-ACD2-799045991F93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Nombre</t>
   </si>
@@ -28,28 +28,37 @@
     <t>Apellido</t>
   </si>
   <si>
-    <t>yesid</t>
-  </si>
-  <si>
-    <t>ochoa</t>
-  </si>
-  <si>
-    <t>valentina</t>
-  </si>
-  <si>
-    <t>ramos</t>
-  </si>
-  <si>
-    <t>carlos</t>
-  </si>
-  <si>
-    <t>luque</t>
-  </si>
-  <si>
-    <t>Nataly</t>
-  </si>
-  <si>
-    <t>Edada1</t>
+    <t>Edad</t>
+  </si>
+  <si>
+    <t>Yesid</t>
+  </si>
+  <si>
+    <t>Ochoa</t>
+  </si>
+  <si>
+    <t>Adriano</t>
+  </si>
+  <si>
+    <t>Liseth</t>
+  </si>
+  <si>
+    <t>Yurany</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Higuaran</t>
+  </si>
+  <si>
+    <t>Ramon</t>
+  </si>
+  <si>
+    <t>Tomas</t>
+  </si>
+  <si>
+    <t>Velasquez</t>
   </si>
 </sst>
 </file>
@@ -380,10 +389,13 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C6" sqref="A2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -393,17 +405,17 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>25</v>
@@ -413,13 +425,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="1"/>
@@ -432,7 +444,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -442,10 +454,21 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
